--- a/DragPrediction/NL2VP DragX/1L/n/7/test.xlsx
+++ b/DragPrediction/NL2VP DragX/1L/n/7/test.xlsx
@@ -370,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <v>8.1675991735537194E-3</v>
+        <v>1.55555556E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -388,11 +388,11 @@
       </c>
       <c r="E2">
         <f>A2*$E$1</f>
-        <v>9.3146126964520667E-2</v>
+        <v>0.1774009382846376</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E200)</f>
-        <v>5.5841927495517503</v>
+        <v>10.635343257053362</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -410,7 +410,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">A3*$E$1</f>
-        <v>0.89861503270838428</v>
+        <v>1.7114522648898636</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -428,7 +428,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>9.6537763359334713E-2</v>
+        <v>0.1838604605253156</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -446,7 +446,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.85721392988319423</v>
+        <v>1.6326020246645772</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -464,7 +464,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>3.7604859902516531E-2</v>
+        <v>7.1620126871295597E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -482,7 +482,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.77726661868033886</v>
+        <v>1.4803388175628727</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -500,7 +500,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.10586985798505785</v>
+        <v>0.20163384946498558</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -518,7 +518,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.51269064648330998</v>
+        <v>0.97644212056761237</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -536,7 +536,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.10499318872776447</v>
+        <v>0.19996419390465961</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -554,7 +554,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.32966451745258268</v>
+        <v>0.62786072401611004</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -572,7 +572,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.11356730564738429</v>
+        <v>0.2162939806179828</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -590,7 +590,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>-1.3829877144210743E-2</v>
+        <v>-2.6339615630811598E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -608,7 +608,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>7.4980520637024789E-2</v>
+        <v>0.142803733741344</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -626,7 +626,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.56308451285895877</v>
+        <v>1.0724194786196113</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -644,7 +644,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>7.5694483151181824E-2</v>
+        <v>0.1441635070785624</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -662,7 +662,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.4276997366119959</v>
+        <v>0.81457315566068522</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +680,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>7.4625646620533059E-2</v>
+        <v>0.14212786040607961</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -698,7 +698,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.26772013850448345</v>
+        <v>0.50988490145681398</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -716,7 +716,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.10884350932456612</v>
+        <v>0.20729730059227799</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,7 +734,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.1860370082872686</v>
+        <v>0.35431574990121961</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -752,7 +752,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>0.11047198975058679</v>
+        <v>0.21039881393447279</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -770,7 +770,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>0.12010324719883884</v>
+        <v>0.2287419717646596</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,7 +788,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>0.11722665144030993</v>
+        <v>0.223263367304562</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,7 +806,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-2.6829052279276861E-2</v>
+        <v>-5.1097122368214003E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -824,7 +824,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>5.7066656051256201E-2</v>
+        <v>0.10868598253275361</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -842,7 +842,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>-0.12508934596911572</v>
+        <v>-0.23823821845845841</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -860,7 +860,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>5.9569322784421494E-2</v>
+        <v>0.113452422546372</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -878,7 +878,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>-0.12856985401053719</v>
+        <v>-0.24486700069962</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -896,7 +896,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>6.3008772304797525E-2</v>
+        <v>0.1200030070095324</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -914,7 +914,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>-7.327433367246694E-2</v>
+        <v>-0.13955422484317079</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -932,7 +932,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>6.8798423984566121E-2</v>
+        <v>0.13102965592992599</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,7 +950,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-6.1615992455727277E-2</v>
+        <v>-0.1173503958908424</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -968,7 +968,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>0.10394179818895043</v>
+        <v>0.1979617738989384</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -986,7 +986,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>2.780191135203719E-2</v>
+        <v>5.29499757068412E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>0.13144283152263223</v>
+        <v>0.25033871404858676</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>-0.25292138807590908</v>
+        <v>-0.481700023598508</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>5.3814718272706612E-2</v>
+        <v>0.102492522515058</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>-8.3231102618181826E-2</v>
+        <v>-0.15851733378624</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>5.5865300224016534E-2</v>
+        <v>0.10639794697066079</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>-8.0603381774070254E-2</v>
+        <v>-0.15351272266082999</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>5.8449136557768601E-2</v>
+        <v>0.11131897809583201</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>-7.0448965095954552E-2</v>
+        <v>-0.13417318482779642</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>5.5032686996665289E-2</v>
+        <v>0.10481219807724119</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>-6.1935623281785125E-2</v>
+        <v>-0.1179591470036928</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>5.0011075505181822E-2</v>
+        <v>9.5248315827693594E-2</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>-3.2929530113194216E-2</v>
+        <v>-6.2715753512521205E-2</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>4.003531689138843E-2</v>
+        <v>7.6249040217854391E-2</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>-3.3813729896925625E-2</v>
+        <v>-6.43997512951104E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>6.1035986735615701E-2</v>
+        <v>0.11624574922101959</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>0.14209150229713635</v>
+        <v>0.27061958077319881</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>6.2167387075933882E-2</v>
+        <v>0.1184005514493984</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>0.14509531658039257</v>
+        <v>0.27634047856732202</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>6.118747119748761E-2</v>
+        <v>0.1165342581107328</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>0.12672559378195042</v>
+        <v>0.2413545251340288</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>5.6603487837322317E-2</v>
+        <v>0.1078038580857888</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>0.10314971258869834</v>
+        <v>0.19645321167240598</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>5.1996561691078517E-2</v>
+        <v>9.9029762505164404E-2</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>3.5782897219673551E-2</v>
+        <v>6.8150117972492388E-2</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>2.7240936138000001E-2</v>
+        <v>5.1881573481566398E-2</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>-0.34636858091356615</v>
+        <v>-0.65967435521811724</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>5.4408298542644631E-2</v>
+        <v>0.103623022518288</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>-5.7184808540900828E-2</v>
+        <v>-0.10891100920006319</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>5.4907845243297518E-2</v>
+        <v>0.1045744314098952</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>-5.6585902996301653E-2</v>
+        <v>-0.10777036697458199</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>5.3663454336012398E-2</v>
+        <v>0.10220443362534599</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E85" si="1">A67*$E$1</f>
-        <v>-7.5126647153838849E-2</v>
+        <v>-0.1430820381865836</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="E68">
         <f t="shared" si="1"/>
-        <v>5.0838093927099176E-2</v>
+        <v>9.6823409165527202E-2</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="E69">
         <f t="shared" si="1"/>
-        <v>-9.2110197690942155E-2</v>
+        <v>-0.1754279649456672</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="E70">
         <f t="shared" si="1"/>
-        <v>5.1997729657760339E-2</v>
+        <v>9.9031986949615208E-2</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="E71">
         <f t="shared" si="1"/>
-        <v>-0.12092061151853306</v>
+        <v>-0.23029867843577398</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="E74">
         <f t="shared" si="1"/>
-        <v>4.9740376765772733E-2</v>
+        <v>9.4732758048442806E-2</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="E75">
         <f t="shared" si="1"/>
-        <v>-0.18808149720959505</v>
+        <v>-0.35820956991234476</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="E76">
         <f t="shared" si="1"/>
-        <v>4.4490047994632236E-2</v>
+        <v>8.4733273575428397E-2</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="E77">
         <f t="shared" si="1"/>
-        <v>-0.18924779770118183</v>
+        <v>-0.36043084102980238</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="E78">
         <f t="shared" si="1"/>
-        <v>2.6248973050772728E-2</v>
+        <v>4.9992335698390795E-2</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="E79">
         <f t="shared" si="1"/>
-        <v>-0.1691334430488719</v>
+        <v>-0.32212215869812677</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="E80">
         <f t="shared" si="1"/>
-        <v>1.8519443058892564E-2</v>
+        <v>3.5271102322996802E-2</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="E81">
         <f t="shared" si="1"/>
-        <v>-0.14800652662421904</v>
+        <v>-0.28188500747205242</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E82">
         <f t="shared" si="1"/>
-        <v>2.6174492713909089E-2</v>
+        <v>4.9850484586874397E-2</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E83">
         <f t="shared" si="1"/>
-        <v>-0.1105099119135496</v>
+        <v>-0.21047103837912359</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1891,5 +1891,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>